--- a/Data/EC/NIT-9014527171.xlsx
+++ b/Data/EC/NIT-9014527171.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07AADE47-5CA9-44F3-9425-BD4CEF80C17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFCA87A9-642C-483F-BA67-6299AF5DD3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{64EA6945-843A-46F0-BE6B-8B85F7F8310B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{47B25000-046F-4C1C-971C-58299A8F60F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,10 +71,85 @@
     <t>ELVER ENRIQUE MARRUGO BELTRAN</t>
   </si>
   <si>
+    <t>2202</t>
+  </si>
+  <si>
     <t>2201</t>
   </si>
   <si>
-    <t>2202</t>
+    <t>73210637</t>
+  </si>
+  <si>
+    <t>FRAN ENRIQUE VILLAMIL NARVAEZ</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>73266002</t>
+  </si>
+  <si>
+    <t>WILFRIDO RAFAEL SANSO CABALLERO</t>
+  </si>
+  <si>
+    <t>3803859</t>
+  </si>
+  <si>
+    <t>REYNALDO MENDEZ CASTRO</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>910830323111970</t>
+  </si>
+  <si>
+    <t>JOSE ALEXANDER GARCIA MENDEZ</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>1050967349</t>
+  </si>
+  <si>
+    <t>WENDY CAROLINA BORJA ZAMBRANO</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>1108765053</t>
+  </si>
+  <si>
+    <t>OMAR DE JESUS GUERRA FRANCO</t>
+  </si>
+  <si>
+    <t>1007706250</t>
+  </si>
+  <si>
+    <t>JOSE DANIEL RUIZ ANGEL</t>
   </si>
   <si>
     <t>1108760995</t>
@@ -86,6 +161,12 @@
     <t>2203</t>
   </si>
   <si>
+    <t>1005418244</t>
+  </si>
+  <si>
+    <t>EDILBERTO JUAN HERRERA ATENCIA</t>
+  </si>
+  <si>
     <t>1192917876</t>
   </si>
   <si>
@@ -104,28 +185,16 @@
     <t>2205</t>
   </si>
   <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>910830323111970</t>
-  </si>
-  <si>
-    <t>JOSE ALEXANDER GARCIA MENDEZ</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
+    <t>92530676</t>
+  </si>
+  <si>
+    <t>JOSE LUIS BERTEL PATERNINA</t>
+  </si>
+  <si>
+    <t>92127931</t>
+  </si>
+  <si>
+    <t>ALFREDO JAVIER PADILLA MEDINA</t>
   </si>
   <si>
     <t>1052095023</t>
@@ -134,55 +203,37 @@
     <t>LUIS ARMANDO YEPES LAMBRAÑO</t>
   </si>
   <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>1050967349</t>
-  </si>
-  <si>
-    <t>WENDY CAROLINA BORJA ZAMBRANO</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
     <t>92546157</t>
   </si>
   <si>
     <t>JOSE MARIA HERNANDEZ MERLANO</t>
   </si>
   <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
     <t>2307</t>
   </si>
   <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
     <t>78726484</t>
   </si>
   <si>
     <t>MANUEL SIMON CAMPILLO BENITEZ</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
   </si>
   <si>
     <t>1068576746</t>
@@ -608,7 +659,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49844368-F9FF-7B39-AF45-F3945F3926AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6930DA40-03AE-E298-B7EB-5BE5E4AA329E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -959,8 +1010,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AED1D9-F896-461D-AAA9-8F716B261F1F}">
-  <dimension ref="B2:J46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED196BF0-7770-42B1-B129-758FB9D29D39}">
+  <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -971,7 +1022,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -984,7 +1035,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1029,7 +1080,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1061,12 +1112,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>755108</v>
+        <v>1116441</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1077,17 +1128,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C13" s="5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F13" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1114,13 +1165,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1180,13 +1231,13 @@
         <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>18666</v>
+        <v>1333</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1203,13 +1254,13 @@
         <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1220,16 +1271,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F20" s="18">
-        <v>1333</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="18">
         <v>1160000</v>
@@ -1243,19 +1294,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="E21" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1263,22 +1314,22 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1295,10 +1346,10 @@
         <v>24</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="18">
-        <v>40000</v>
+        <v>9333</v>
       </c>
       <c r="G23" s="18">
         <v>1000000</v>
@@ -1318,7 +1369,7 @@
         <v>24</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
@@ -1341,7 +1392,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1364,10 +1415,10 @@
         <v>24</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="18">
-        <v>9333</v>
+        <v>40000</v>
       </c>
       <c r="G26" s="18">
         <v>1000000</v>
@@ -1378,22 +1429,22 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F27" s="18">
-        <v>34027</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1410,10 +1461,10 @@
         <v>31</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28" s="18">
-        <v>46400</v>
+        <v>15467</v>
       </c>
       <c r="G28" s="18">
         <v>1160000</v>
@@ -1427,13 +1478,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F29" s="18">
         <v>23200</v>
@@ -1456,10 +1507,10 @@
         <v>35</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F30" s="18">
-        <v>15467</v>
+        <v>40000</v>
       </c>
       <c r="G30" s="18">
         <v>1160000</v>
@@ -1473,16 +1524,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F31" s="18">
-        <v>29387</v>
+        <v>40000</v>
       </c>
       <c r="G31" s="18">
         <v>1160000</v>
@@ -1502,13 +1553,13 @@
         <v>39</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G32" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1525,13 +1576,13 @@
         <v>39</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F33" s="18">
-        <v>46400</v>
+        <v>18666</v>
       </c>
       <c r="G33" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1542,16 +1593,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F34" s="18">
-        <v>1547</v>
+        <v>40000</v>
       </c>
       <c r="G34" s="18">
         <v>1160000</v>
@@ -1565,16 +1616,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F35" s="18">
-        <v>46400</v>
+        <v>1333</v>
       </c>
       <c r="G35" s="18">
         <v>1160000</v>
@@ -1588,19 +1639,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F36" s="18">
-        <v>46400</v>
+        <v>16000</v>
       </c>
       <c r="G36" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1611,16 +1662,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F37" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G37" s="18">
         <v>1160000</v>
@@ -1634,16 +1685,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F38" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G38" s="18">
         <v>1160000</v>
@@ -1657,75 +1708,305 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F39" s="18">
-        <v>6933</v>
+        <v>46400</v>
       </c>
       <c r="G39" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="24">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="18">
+        <v>34027</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="18">
+        <v>29387</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="18">
+        <v>1547</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="18">
+        <v>6933</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="24">
         <v>1733</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G50" s="24">
         <v>1300000</v>
       </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="32"/>
-      <c r="H45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="H46" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="26"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="32"/>
+      <c r="H55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="H56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H55:J55"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9014527171.xlsx
+++ b/Data/EC/NIT-9014527171.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFCA87A9-642C-483F-BA67-6299AF5DD3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAB1AE4A-881A-45BF-808A-283C355E672D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{47B25000-046F-4C1C-971C-58299A8F60F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAEDCA45-A7E8-4F50-964A-DA6951035E55}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,169 +71,118 @@
     <t>ELVER ENRIQUE MARRUGO BELTRAN</t>
   </si>
   <si>
+    <t>2201</t>
+  </si>
+  <si>
     <t>2202</t>
   </si>
   <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>73210637</t>
-  </si>
-  <si>
-    <t>FRAN ENRIQUE VILLAMIL NARVAEZ</t>
+    <t>1108760995</t>
+  </si>
+  <si>
+    <t>RAFAEL OLIVERO ROCHA</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>1192917876</t>
+  </si>
+  <si>
+    <t>CARLOS MARIO VIDES OLIVERO</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>1045227390</t>
+  </si>
+  <si>
+    <t>ELIO MATHEL PARRA PADILLA</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>910830323111970</t>
+  </si>
+  <si>
+    <t>JOSE ALEXANDER GARCIA MENDEZ</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>1052095023</t>
+  </si>
+  <si>
+    <t>LUIS ARMANDO YEPES LAMBRAÑO</t>
+  </si>
+  <si>
+    <t>2302</t>
   </si>
   <si>
     <t>2303</t>
   </si>
   <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>73266002</t>
-  </si>
-  <si>
-    <t>WILFRIDO RAFAEL SANSO CABALLERO</t>
-  </si>
-  <si>
-    <t>3803859</t>
-  </si>
-  <si>
-    <t>REYNALDO MENDEZ CASTRO</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>910830323111970</t>
-  </si>
-  <si>
-    <t>JOSE ALEXANDER GARCIA MENDEZ</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
     <t>1050967349</t>
   </si>
   <si>
     <t>WENDY CAROLINA BORJA ZAMBRANO</t>
   </si>
   <si>
+    <t>2305</t>
+  </si>
+  <si>
     <t>2306</t>
   </si>
   <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>1108765053</t>
-  </si>
-  <si>
-    <t>OMAR DE JESUS GUERRA FRANCO</t>
-  </si>
-  <si>
-    <t>1007706250</t>
-  </si>
-  <si>
-    <t>JOSE DANIEL RUIZ ANGEL</t>
-  </si>
-  <si>
-    <t>1108760995</t>
-  </si>
-  <si>
-    <t>RAFAEL OLIVERO ROCHA</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>1005418244</t>
-  </si>
-  <si>
-    <t>EDILBERTO JUAN HERRERA ATENCIA</t>
-  </si>
-  <si>
-    <t>1192917876</t>
-  </si>
-  <si>
-    <t>CARLOS MARIO VIDES OLIVERO</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>1045227390</t>
-  </si>
-  <si>
-    <t>ELIO MATHEL PARRA PADILLA</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>92530676</t>
-  </si>
-  <si>
-    <t>JOSE LUIS BERTEL PATERNINA</t>
-  </si>
-  <si>
-    <t>92127931</t>
-  </si>
-  <si>
-    <t>ALFREDO JAVIER PADILLA MEDINA</t>
-  </si>
-  <si>
-    <t>1052095023</t>
-  </si>
-  <si>
-    <t>LUIS ARMANDO YEPES LAMBRAÑO</t>
-  </si>
-  <si>
     <t>92546157</t>
   </si>
   <si>
     <t>JOSE MARIA HERNANDEZ MERLANO</t>
   </si>
   <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>78726484</t>
+  </si>
+  <si>
+    <t>MANUEL SIMON CAMPILLO BENITEZ</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
     <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>78726484</t>
-  </si>
-  <si>
-    <t>MANUEL SIMON CAMPILLO BENITEZ</t>
   </si>
   <si>
     <t>1068576746</t>
@@ -344,7 +293,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -357,9 +308,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -559,23 +508,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -603,10 +552,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -659,7 +608,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6930DA40-03AE-E298-B7EB-5BE5E4AA329E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614A7925-0DC3-D2A0-1508-D9FF355DFE6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,8 +959,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED196BF0-7770-42B1-B129-758FB9D29D39}">
-  <dimension ref="B2:J56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73B445B-7DE7-4DED-AFA3-DEA6410D3CD1}">
+  <dimension ref="B2:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1022,7 +971,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1035,7 +984,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1080,7 +1029,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1112,12 +1061,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1116441</v>
+        <v>755108</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1128,17 +1077,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F13" s="5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1165,13 +1114,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1231,13 +1180,13 @@
         <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F18" s="18">
-        <v>1333</v>
+        <v>18666</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1254,13 +1203,13 @@
         <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1271,16 +1220,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>40000</v>
+        <v>1333</v>
       </c>
       <c r="G20" s="18">
         <v>1160000</v>
@@ -1294,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="G21" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1314,22 +1263,22 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F22" s="18">
         <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1346,10 +1295,10 @@
         <v>24</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F23" s="18">
-        <v>9333</v>
+        <v>40000</v>
       </c>
       <c r="G23" s="18">
         <v>1000000</v>
@@ -1369,7 +1318,7 @@
         <v>24</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
@@ -1392,7 +1341,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1415,10 +1364,10 @@
         <v>24</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F26" s="18">
-        <v>40000</v>
+        <v>9333</v>
       </c>
       <c r="G26" s="18">
         <v>1000000</v>
@@ -1429,22 +1378,22 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F27" s="18">
-        <v>40000</v>
+        <v>34027</v>
       </c>
       <c r="G27" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1461,10 +1410,10 @@
         <v>31</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F28" s="18">
-        <v>15467</v>
+        <v>46400</v>
       </c>
       <c r="G28" s="18">
         <v>1160000</v>
@@ -1478,13 +1427,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F29" s="18">
         <v>23200</v>
@@ -1507,10 +1456,10 @@
         <v>35</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F30" s="18">
-        <v>40000</v>
+        <v>15467</v>
       </c>
       <c r="G30" s="18">
         <v>1160000</v>
@@ -1524,16 +1473,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F31" s="18">
-        <v>40000</v>
+        <v>29387</v>
       </c>
       <c r="G31" s="18">
         <v>1160000</v>
@@ -1553,13 +1502,13 @@
         <v>39</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F32" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G32" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1576,13 +1525,13 @@
         <v>39</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F33" s="18">
-        <v>18666</v>
+        <v>46400</v>
       </c>
       <c r="G33" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1593,16 +1542,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F34" s="18">
-        <v>40000</v>
+        <v>1547</v>
       </c>
       <c r="G34" s="18">
         <v>1160000</v>
@@ -1616,16 +1565,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F35" s="18">
-        <v>1333</v>
+        <v>46400</v>
       </c>
       <c r="G35" s="18">
         <v>1160000</v>
@@ -1639,19 +1588,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>48</v>
-      </c>
       <c r="F36" s="18">
-        <v>16000</v>
+        <v>46400</v>
       </c>
       <c r="G36" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1662,16 +1611,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F37" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G37" s="18">
         <v>1160000</v>
@@ -1685,16 +1634,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F38" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G38" s="18">
         <v>1160000</v>
@@ -1708,305 +1657,75 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F39" s="18">
-        <v>46400</v>
+        <v>6933</v>
       </c>
       <c r="G39" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="18">
-        <v>34027</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F42" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="B40" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="24">
+        <v>1733</v>
+      </c>
+      <c r="G40" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="16" t="s">
+      <c r="B45" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="H45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F45" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="16" t="s">
+      <c r="C46" s="32"/>
+      <c r="H46" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="18">
-        <v>29387</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" s="18">
-        <v>1547</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F49" s="18">
-        <v>6933</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F50" s="24">
-        <v>1733</v>
-      </c>
-      <c r="G50" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="26"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="32"/>
-      <c r="H55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="32"/>
-      <c r="H56" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H45:J45"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9014527171.xlsx
+++ b/Data/EC/NIT-9014527171.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAB1AE4A-881A-45BF-808A-283C355E672D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DA44CC0-250F-4113-A671-E6589FFEE95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAEDCA45-A7E8-4F50-964A-DA6951035E55}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1ABEC136-7DC7-4C67-9A52-0E979E0CD7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -293,9 +293,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -308,7 +306,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -502,29 +502,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -543,19 +543,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -608,7 +614,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614A7925-0DC3-D2A0-1508-D9FF355DFE6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C6B31A-7036-E0B1-7A14-C3735379D404}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -959,7 +965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73B445B-7DE7-4DED-AFA3-DEA6410D3CD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C4BE1-5F60-4967-BA84-23D908482195}">
   <dimension ref="B2:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -982,49 +988,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1032,7 +1038,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1048,7 +1054,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9014527171</v>
       </c>
@@ -1064,7 +1070,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>755108</v>
       </c>
@@ -1133,18 +1139,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>36341</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>908526</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1156,18 +1162,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>36341</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>908526</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1179,18 +1185,18 @@
       <c r="D18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>18666</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1000000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1202,18 +1208,18 @@
       <c r="D19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>40000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1000000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1225,18 +1231,18 @@
       <c r="D20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>1333</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1160000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1248,18 +1254,18 @@
       <c r="D21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>16000</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1000000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1271,18 +1277,18 @@
       <c r="D22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>40000</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1000000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1294,18 +1300,18 @@
       <c r="D23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>40000</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1000000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1317,18 +1323,18 @@
       <c r="D24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>40000</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1000000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1340,18 +1346,18 @@
       <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>40000</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1000000</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1363,18 +1369,18 @@
       <c r="D26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>9333</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>1000000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1386,18 +1392,18 @@
       <c r="D27" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>34027</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>1160000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1409,18 +1415,18 @@
       <c r="D28" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>46400</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1160000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1432,18 +1438,18 @@
       <c r="D29" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>23200</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>1160000</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1455,18 +1461,18 @@
       <c r="D30" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>15467</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>1160000</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1478,18 +1484,18 @@
       <c r="D31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>29387</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>1160000</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1501,18 +1507,18 @@
       <c r="D32" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>46400</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>1160000</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1524,18 +1530,18 @@
       <c r="D33" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>46400</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>1160000</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1547,18 +1553,18 @@
       <c r="D34" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>1547</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="19">
         <v>1160000</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1570,18 +1576,18 @@
       <c r="D35" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>46400</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>1160000</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1593,18 +1599,18 @@
       <c r="D36" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>46400</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="19">
         <v>1160000</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1616,18 +1622,18 @@
       <c r="D37" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>46400</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="19">
         <v>1160000</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1639,18 +1645,18 @@
       <c r="D38" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>46400</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="19">
         <v>1160000</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1662,47 +1668,47 @@
       <c r="D39" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>6933</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="19">
         <v>1300000</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="22" t="s">
+      <c r="B40" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="26">
         <v>1733</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="26">
         <v>1300000</v>
       </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="28"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="32"/>
+      <c r="C45" s="34"/>
       <c r="H45" s="1" t="s">
         <v>62</v>
       </c>
@@ -1710,10 +1716,10 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="32"/>
+      <c r="C46" s="34"/>
       <c r="H46" s="1" t="s">
         <v>63</v>
       </c>
